--- a/txt/names.xlsx
+++ b/txt/names.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\workspace\ark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\workspace\ark\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="892">
   <si>
     <t>char_002_amiya_epoque_4_mix_68_100_20200517-012107.gif</t>
   </si>
@@ -1717,6 +1719,1111 @@
   </si>
   <si>
     <t>char_367_swllow_boc_1-8.png</t>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>见习联结者</t>
+  </si>
+  <si>
+    <t>新聞配達員</t>
+  </si>
+  <si>
+    <t>LOSTSTONE</t>
+  </si>
+  <si>
+    <t>岁红霞</t>
+  </si>
+  <si>
+    <t>安息の午夜 DN02</t>
+  </si>
+  <si>
+    <t>挽歌</t>
+  </si>
+  <si>
+    <t>サンライトSS.SP</t>
+  </si>
+  <si>
+    <t>儿童派对</t>
+  </si>
+  <si>
+    <t>荒野潜行</t>
+  </si>
+  <si>
+    <t>城市骑手</t>
+  </si>
+  <si>
+    <t>质素访客</t>
+  </si>
+  <si>
+    <t>ヨークの寒風</t>
+  </si>
+  <si>
+    <t>狩标浪人</t>
+  </si>
+  <si>
+    <t>坚城</t>
+  </si>
+  <si>
+    <t>厚礼</t>
+  </si>
+  <si>
+    <t>冬の使者</t>
+  </si>
+  <si>
+    <t>整装待发</t>
+  </si>
+  <si>
+    <t>幽静</t>
+  </si>
+  <si>
+    <t>漆匠</t>
+  </si>
+  <si>
+    <t>盛宴</t>
+  </si>
+  <si>
+    <t>温度差RT.RX01</t>
+  </si>
+  <si>
+    <t>登山家</t>
+  </si>
+  <si>
+    <t>高原访客</t>
+  </si>
+  <si>
+    <t>片场一角</t>
+  </si>
+  <si>
+    <t>枯柏</t>
+  </si>
+  <si>
+    <t>石墨</t>
+  </si>
+  <si>
+    <t>カスターの霜</t>
+  </si>
+  <si>
+    <t>夏の花弁 FA361</t>
+  </si>
+  <si>
+    <t>暗流</t>
+  </si>
+  <si>
+    <t>典雅噩兆</t>
+  </si>
+  <si>
+    <t>春竜</t>
+  </si>
+  <si>
+    <t>清晨七点</t>
+  </si>
+  <si>
+    <t>富貴栄華</t>
+  </si>
+  <si>
+    <t>無題密令</t>
+  </si>
+  <si>
+    <t>归巢</t>
+  </si>
+  <si>
+    <t>新航路</t>
+  </si>
+  <si>
+    <t>ホリデーHD01</t>
+  </si>
+  <si>
+    <t>辛味</t>
+  </si>
+  <si>
+    <t>戦医</t>
+  </si>
+  <si>
+    <t>植物紀年</t>
+  </si>
+  <si>
+    <t>未知的旅行</t>
+  </si>
+  <si>
+    <t>おてんば魔女っこ</t>
+  </si>
+  <si>
+    <t>鉄塊</t>
+  </si>
+  <si>
+    <t>燃灰</t>
+  </si>
+  <si>
+    <t>君子蘭</t>
+  </si>
+  <si>
+    <t>スクエア</t>
+  </si>
+  <si>
+    <t>夏の花弁FA011</t>
+  </si>
+  <si>
+    <t>砂浜の番人 GT001</t>
+  </si>
+  <si>
+    <t>除夜の者</t>
+  </si>
+  <si>
+    <t>ホリデーHDm06</t>
+  </si>
+  <si>
+    <t>マジシャン</t>
+  </si>
+  <si>
+    <t>ウェセックスレター</t>
+  </si>
+  <si>
+    <t>快乐卫士</t>
+  </si>
+  <si>
+    <t>第七夜苏醒魔君</t>
+  </si>
+  <si>
+    <t>SUM019.ver</t>
+  </si>
+  <si>
+    <t>チェン</t>
+  </si>
+  <si>
+    <t>char_010_chen</t>
+  </si>
+  <si>
+    <t>char_010_chen_nian_2</t>
+  </si>
+  <si>
+    <t>シージ</t>
+  </si>
+  <si>
+    <t>char_112_siege</t>
+  </si>
+  <si>
+    <t>char_112_siege_wild_2</t>
+  </si>
+  <si>
+    <t>シャイニング</t>
+  </si>
+  <si>
+    <t>char_147_shining</t>
+  </si>
+  <si>
+    <t>char_147_shining_summer_1</t>
+  </si>
+  <si>
+    <t>ナイチンゲール</t>
+  </si>
+  <si>
+    <t>char_179_cgbird</t>
+  </si>
+  <si>
+    <t>char_179_cgbird_witch_1</t>
+  </si>
+  <si>
+    <t>イフリータ</t>
+  </si>
+  <si>
+    <t>char_134_ifrit</t>
+  </si>
+  <si>
+    <t>char_134_ifrit_summer_1</t>
+  </si>
+  <si>
+    <t>char_134_ifrit_kfc_1</t>
+  </si>
+  <si>
+    <t>char_180_amgoat</t>
+  </si>
+  <si>
+    <t>エクシア</t>
+  </si>
+  <si>
+    <t>char_103_angel</t>
+  </si>
+  <si>
+    <t>char_103_angel_wild_1</t>
+  </si>
+  <si>
+    <t>char_103_angel_kfc_1</t>
+  </si>
+  <si>
+    <t>アンジェリーナ</t>
+  </si>
+  <si>
+    <t>char_291_aglina</t>
+  </si>
+  <si>
+    <t>char_291_aglina_boc_1</t>
+  </si>
+  <si>
+    <t>シルバーアッシュ</t>
+  </si>
+  <si>
+    <t>char_172_svrash</t>
+  </si>
+  <si>
+    <t>char_172_svrash_snow_1</t>
+  </si>
+  <si>
+    <t>ホシグマ</t>
+  </si>
+  <si>
+    <t>char_136_hsguma</t>
+  </si>
+  <si>
+    <t>char_136_hsguma_nian_3</t>
+  </si>
+  <si>
+    <t>サリア</t>
+  </si>
+  <si>
+    <t>char_202_demkni</t>
+  </si>
+  <si>
+    <t>char_202_demkni_boc_1</t>
+  </si>
+  <si>
+    <t>スカジ</t>
+  </si>
+  <si>
+    <t>char_263_skadi</t>
+  </si>
+  <si>
+    <t>シュバルツ</t>
+  </si>
+  <si>
+    <t>char_340_shwaz</t>
+  </si>
+  <si>
+    <t>char_340_shwaz_snow_1</t>
+  </si>
+  <si>
+    <t>ヘラグ</t>
+  </si>
+  <si>
+    <t>char_188_helage</t>
+  </si>
+  <si>
+    <t>マゼラン</t>
+  </si>
+  <si>
+    <t>char_248_mgllan</t>
+  </si>
+  <si>
+    <t>モスティマ</t>
+  </si>
+  <si>
+    <t>char_213_mostma</t>
+  </si>
+  <si>
+    <t>ブレイズ</t>
+  </si>
+  <si>
+    <t>char_017_huang</t>
+  </si>
+  <si>
+    <t>ア</t>
+  </si>
+  <si>
+    <t>char_225_haak</t>
+  </si>
+  <si>
+    <t>ニアン</t>
+  </si>
+  <si>
+    <t>char_2014_nian</t>
+  </si>
+  <si>
+    <t>ケオベ</t>
+  </si>
+  <si>
+    <t>char_2013_cerber</t>
+  </si>
+  <si>
+    <t>バグパイプ</t>
+  </si>
+  <si>
+    <t>char_222_bpipe</t>
+  </si>
+  <si>
+    <t>ファントム</t>
+  </si>
+  <si>
+    <t>char_250_phatom</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>char_113_cqbw</t>
+  </si>
+  <si>
+    <t>char_400_weedy</t>
+  </si>
+  <si>
+    <t>サベージ</t>
+  </si>
+  <si>
+    <t>char_230_savage</t>
+  </si>
+  <si>
+    <t>テキサス</t>
+  </si>
+  <si>
+    <t>char_102_texas</t>
+  </si>
+  <si>
+    <t>char_102_texas_winter_1</t>
+  </si>
+  <si>
+    <t>ズィマー</t>
+  </si>
+  <si>
+    <t>char_115_headbr</t>
+  </si>
+  <si>
+    <t>char_115_headbr_marthe_2</t>
+  </si>
+  <si>
+    <t>フィリオプシス</t>
+  </si>
+  <si>
+    <t>char_128_plosis</t>
+  </si>
+  <si>
+    <t>char_128_plosis_epoque_3</t>
+  </si>
+  <si>
+    <t>サイレンス</t>
+  </si>
+  <si>
+    <t>char_108_silent</t>
+  </si>
+  <si>
+    <t>char_108_silent_sweep_1</t>
+  </si>
+  <si>
+    <t>ワルファリン</t>
+  </si>
+  <si>
+    <t>char_171_bldsk</t>
+  </si>
+  <si>
+    <t>char_171_bldsk_witch_1</t>
+  </si>
+  <si>
+    <t>アーミヤ</t>
+  </si>
+  <si>
+    <t>char_002_amiya</t>
+  </si>
+  <si>
+    <t>char_002_amiya_winter_1</t>
+  </si>
+  <si>
+    <t>char_002_amiya_epoque_4</t>
+  </si>
+  <si>
+    <t>ナイトメア</t>
+  </si>
+  <si>
+    <t>char_164_nightm</t>
+  </si>
+  <si>
+    <t>スカイフレア</t>
+  </si>
+  <si>
+    <t>char_166_skfire</t>
+  </si>
+  <si>
+    <t>char_166_skfire_summer_1</t>
+  </si>
+  <si>
+    <t>レッド</t>
+  </si>
+  <si>
+    <t>char_144_red</t>
+  </si>
+  <si>
+    <t>マンティコア</t>
+  </si>
+  <si>
+    <t>char_215_mantic</t>
+  </si>
+  <si>
+    <t>クリフハート</t>
+  </si>
+  <si>
+    <t>char_173_slchan</t>
+  </si>
+  <si>
+    <t>char_173_slchan_wwf_1</t>
+  </si>
+  <si>
+    <t>char_173_slchan_wild_1</t>
+  </si>
+  <si>
+    <t>エフイーター</t>
+  </si>
+  <si>
+    <t>char_241_panda</t>
+  </si>
+  <si>
+    <t>char_241_panda_marthe_1</t>
+  </si>
+  <si>
+    <t>プロヴァンス</t>
+  </si>
+  <si>
+    <t>char_145_prove</t>
+  </si>
+  <si>
+    <t>アズリウス</t>
+  </si>
+  <si>
+    <t>char_129_bluep</t>
+  </si>
+  <si>
+    <t>ファイヤーウォッチ</t>
+  </si>
+  <si>
+    <t>char_158_milu</t>
+  </si>
+  <si>
+    <t>char_158_milu_wild_2</t>
+  </si>
+  <si>
+    <t>メテオリーテ</t>
+  </si>
+  <si>
+    <t>char_219_meteo</t>
+  </si>
+  <si>
+    <t>char_219_meteo_sweep_1</t>
+  </si>
+  <si>
+    <t>プラチナ</t>
+  </si>
+  <si>
+    <t>char_204_platnm</t>
+  </si>
+  <si>
+    <t>プラマニクス</t>
+  </si>
+  <si>
+    <t>char_174_slbell</t>
+  </si>
+  <si>
+    <t>char_174_slbell_snow_1</t>
+  </si>
+  <si>
+    <t>イースチナ</t>
+  </si>
+  <si>
+    <t>char_195_glassb</t>
+  </si>
+  <si>
+    <t>メイヤー</t>
+  </si>
+  <si>
+    <t>char_242_otter</t>
+  </si>
+  <si>
+    <t>ソラ</t>
+  </si>
+  <si>
+    <t>char_101_sora</t>
+  </si>
+  <si>
+    <t>char_101_sora_summer_1</t>
+  </si>
+  <si>
+    <t>フランカ</t>
+  </si>
+  <si>
+    <t>char_106_franka</t>
+  </si>
+  <si>
+    <t>スペクター</t>
+  </si>
+  <si>
+    <t>char_143_ghost</t>
+  </si>
+  <si>
+    <t>char_143_ghost_winter_1</t>
+  </si>
+  <si>
+    <t>インドラ</t>
+  </si>
+  <si>
+    <t>char_155_tiger</t>
+  </si>
+  <si>
+    <t>ラップランド</t>
+  </si>
+  <si>
+    <t>char_140_whitew</t>
+  </si>
+  <si>
+    <t>char_140_whitew_boc_1</t>
+  </si>
+  <si>
+    <t>ニアール</t>
+  </si>
+  <si>
+    <t>char_148_nearl</t>
+  </si>
+  <si>
+    <t>リスカム</t>
+  </si>
+  <si>
+    <t>char_107_liskam</t>
+  </si>
+  <si>
+    <t>char_107_liskam_nian_2</t>
+  </si>
+  <si>
+    <t>ヴァルカン</t>
+  </si>
+  <si>
+    <t>char_163_hpsts</t>
+  </si>
+  <si>
+    <t>クロワッサン</t>
+  </si>
+  <si>
+    <t>char_201_moeshd</t>
+  </si>
+  <si>
+    <t>char_201_moeshd_kfc_1</t>
+  </si>
+  <si>
+    <t>グラニ</t>
+  </si>
+  <si>
+    <t>char_220_grani</t>
+  </si>
+  <si>
+    <t>スワイヤー</t>
+  </si>
+  <si>
+    <t>char_308_swire</t>
+  </si>
+  <si>
+    <t>char_308_swire_nian_2</t>
+  </si>
+  <si>
+    <t>グラウコス</t>
+  </si>
+  <si>
+    <t>char_326_glacus</t>
+  </si>
+  <si>
+    <t>セイロン</t>
+  </si>
+  <si>
+    <t>char_348_ceylon</t>
+  </si>
+  <si>
+    <t>アステシア</t>
+  </si>
+  <si>
+    <t>char_274_astesi</t>
+  </si>
+  <si>
+    <t>エンカク</t>
+  </si>
+  <si>
+    <t>char_131_flameb</t>
+  </si>
+  <si>
+    <t>char_279_excu</t>
+  </si>
+  <si>
+    <t>char_279_excu_boc_1</t>
+  </si>
+  <si>
+    <t>ブリーズ</t>
+  </si>
+  <si>
+    <t>char_275_breeze</t>
+  </si>
+  <si>
+    <t>char_243_waaifu</t>
+  </si>
+  <si>
+    <t>バイソン</t>
+  </si>
+  <si>
+    <t>char_325_bison</t>
+  </si>
+  <si>
+    <t>リード</t>
+  </si>
+  <si>
+    <t>char_261_sddrag</t>
+  </si>
+  <si>
+    <t>ブローカ</t>
+  </si>
+  <si>
+    <t>char_356_broca</t>
+  </si>
+  <si>
+    <t>char_367_swllow</t>
+  </si>
+  <si>
+    <t>char_367_swllow_boc_1</t>
+  </si>
+  <si>
+    <t>char_383_snsant</t>
+  </si>
+  <si>
+    <t>ウン</t>
+  </si>
+  <si>
+    <t>char_226_hmau</t>
+  </si>
+  <si>
+    <t>レイズ</t>
+  </si>
+  <si>
+    <t>char_306_leizi</t>
+  </si>
+  <si>
+    <t>バイビーク</t>
+  </si>
+  <si>
+    <t>char_252_bibeak</t>
+  </si>
+  <si>
+    <t>char_379_sesa</t>
+  </si>
+  <si>
+    <t>char_254_vodfox</t>
+  </si>
+  <si>
+    <t>シデロカ</t>
+  </si>
+  <si>
+    <t>char_333_sidero</t>
+  </si>
+  <si>
+    <t>char_401_elysm</t>
+  </si>
+  <si>
+    <t>クーリエ</t>
+  </si>
+  <si>
+    <t>char_198_blackd</t>
+  </si>
+  <si>
+    <t>char_198_blackd_winter_1</t>
+  </si>
+  <si>
+    <t>スカベンジャー</t>
+  </si>
+  <si>
+    <t>char_149_scave</t>
+  </si>
+  <si>
+    <t>ヴィグナ</t>
+  </si>
+  <si>
+    <t>char_290_vigna</t>
+  </si>
+  <si>
+    <t>char_290_vigna_summer_1</t>
+  </si>
+  <si>
+    <t>ミルラ</t>
+  </si>
+  <si>
+    <t>char_117_myrrh</t>
+  </si>
+  <si>
+    <t>char_117_myrrh_wild_1</t>
+  </si>
+  <si>
+    <t>ガヴィル</t>
+  </si>
+  <si>
+    <t>char_187_ccheal</t>
+  </si>
+  <si>
+    <t>char_187_ccheal_epoque_2</t>
+  </si>
+  <si>
+    <t>パフューマー</t>
+  </si>
+  <si>
+    <t>char_181_flower</t>
+  </si>
+  <si>
+    <t>char_181_flower_daily_1</t>
+  </si>
+  <si>
+    <t>ヘイズ</t>
+  </si>
+  <si>
+    <t>char_141_nights</t>
+  </si>
+  <si>
+    <t>ギターノ</t>
+  </si>
+  <si>
+    <t>char_109_fmout</t>
+  </si>
+  <si>
+    <t>char_109_fmout_epoque_2</t>
+  </si>
+  <si>
+    <t>グラベル</t>
+  </si>
+  <si>
+    <t>char_237_gravel</t>
+  </si>
+  <si>
+    <t>ロープ</t>
+  </si>
+  <si>
+    <t>char_236_rope</t>
+  </si>
+  <si>
+    <t>char_236_rope_witch_1</t>
+  </si>
+  <si>
+    <t>ショウ</t>
+  </si>
+  <si>
+    <t>char_277_sqrrel</t>
+  </si>
+  <si>
+    <t>シラユキ</t>
+  </si>
+  <si>
+    <t>char_118_yuki</t>
+  </si>
+  <si>
+    <t>メテオ</t>
+  </si>
+  <si>
+    <t>char_126_shotst</t>
+  </si>
+  <si>
+    <t>ジェシカ</t>
+  </si>
+  <si>
+    <t>char_235_jesica</t>
+  </si>
+  <si>
+    <t>char_235_jesica_nian_2</t>
+  </si>
+  <si>
+    <t>char_235_jesica_wild_2</t>
+  </si>
+  <si>
+    <t>char_235_jesica_sweep_1</t>
+  </si>
+  <si>
+    <t>ディピカ</t>
+  </si>
+  <si>
+    <t>char_110_deepcl</t>
+  </si>
+  <si>
+    <t>アーススピリット</t>
+  </si>
+  <si>
+    <t>char_183_skgoat</t>
+  </si>
+  <si>
+    <t>ドーベルマン</t>
+  </si>
+  <si>
+    <t>char_130_doberm</t>
+  </si>
+  <si>
+    <t>エステル</t>
+  </si>
+  <si>
+    <t>char_127_estell</t>
+  </si>
+  <si>
+    <t>ビーハンター</t>
+  </si>
+  <si>
+    <t>char_137_brownb</t>
+  </si>
+  <si>
+    <t>ムース</t>
+  </si>
+  <si>
+    <t>char_185_frncat</t>
+  </si>
+  <si>
+    <t>フロストリーフ</t>
+  </si>
+  <si>
+    <t>char_193_frostl</t>
+  </si>
+  <si>
+    <t>マトイマル</t>
+  </si>
+  <si>
+    <t>char_289_gyuki</t>
+  </si>
+  <si>
+    <t>クオーラ</t>
+  </si>
+  <si>
+    <t>char_150_snakek</t>
+  </si>
+  <si>
+    <t>char_150_snakek_wild_1</t>
+  </si>
+  <si>
+    <t>グム</t>
+  </si>
+  <si>
+    <t>char_196_sunbr</t>
+  </si>
+  <si>
+    <t>char_196_sunbr_summer_1</t>
+  </si>
+  <si>
+    <t>char_199_yak</t>
+  </si>
+  <si>
+    <t>char_199_yak_summer_1</t>
+  </si>
+  <si>
+    <t>グレイ</t>
+  </si>
+  <si>
+    <t>char_253_greyy</t>
+  </si>
+  <si>
+    <t>ススーロ</t>
+  </si>
+  <si>
+    <t>char_298_susuro</t>
+  </si>
+  <si>
+    <t>テンニンカ</t>
+  </si>
+  <si>
+    <t>char_151_myrtle</t>
+  </si>
+  <si>
+    <t>ジュナー</t>
+  </si>
+  <si>
+    <t>char_260_durnar</t>
+  </si>
+  <si>
+    <t>ヴァーミル</t>
+  </si>
+  <si>
+    <t>char_190_clour</t>
+  </si>
+  <si>
+    <t>イーサン</t>
+  </si>
+  <si>
+    <t>char_355_ethan</t>
+  </si>
+  <si>
+    <t>メイ</t>
+  </si>
+  <si>
+    <t>char_133_mm</t>
+  </si>
+  <si>
+    <t>アンブリエル</t>
+  </si>
+  <si>
+    <t>char_302_glaze</t>
+  </si>
+  <si>
+    <t>char_385_finlpp</t>
+  </si>
+  <si>
+    <t>ウタゲ</t>
+  </si>
+  <si>
+    <t>char_337_utage</t>
+  </si>
+  <si>
+    <t>char_159_peacok</t>
+  </si>
+  <si>
+    <t>カッター</t>
+  </si>
+  <si>
+    <t>char_301_cutter</t>
+  </si>
+  <si>
+    <t>フェン</t>
+  </si>
+  <si>
+    <t>char_123_fang</t>
+  </si>
+  <si>
+    <t>char_123_fang_winter_1</t>
+  </si>
+  <si>
+    <t>バニラ</t>
+  </si>
+  <si>
+    <t>char_240_wyvern</t>
+  </si>
+  <si>
+    <t>プリュム</t>
+  </si>
+  <si>
+    <t>char_192_falco</t>
+  </si>
+  <si>
+    <t>ハイビスカス</t>
+  </si>
+  <si>
+    <t>char_120_hibisc</t>
+  </si>
+  <si>
+    <t>char_120_hibisc_nian_1</t>
+  </si>
+  <si>
+    <t>アンセル</t>
+  </si>
+  <si>
+    <t>char_212_ansel</t>
+  </si>
+  <si>
+    <t>char_212_ansel_summer_1</t>
+  </si>
+  <si>
+    <t>ラヴァ</t>
+  </si>
+  <si>
+    <t>char_121_lava</t>
+  </si>
+  <si>
+    <t>スチュワード</t>
+  </si>
+  <si>
+    <t>char_210_stward</t>
+  </si>
+  <si>
+    <t>クルース</t>
+  </si>
+  <si>
+    <t>char_124_kroos</t>
+  </si>
+  <si>
+    <t>char_124_kroos_witch_1</t>
+  </si>
+  <si>
+    <t>アドナキエル</t>
+  </si>
+  <si>
+    <t>char_211_adnach</t>
+  </si>
+  <si>
+    <t>オーキッド</t>
+  </si>
+  <si>
+    <t>char_278_orchid</t>
+  </si>
+  <si>
+    <t>メランサ</t>
+  </si>
+  <si>
+    <t>char_208_melan</t>
+  </si>
+  <si>
+    <t>char_208_melan_epoque_1</t>
+  </si>
+  <si>
+    <t>ビーグル</t>
+  </si>
+  <si>
+    <t>char_122_beagle</t>
+  </si>
+  <si>
+    <t>カーディ</t>
+  </si>
+  <si>
+    <t>char_209_ardign</t>
+  </si>
+  <si>
+    <t>char_209_ardign_snow_1</t>
+  </si>
+  <si>
+    <t>カタパルト</t>
+  </si>
+  <si>
+    <t>char_282_catap</t>
+  </si>
+  <si>
+    <t>ミッドナイト</t>
+  </si>
+  <si>
+    <t>char_283_midn</t>
+  </si>
+  <si>
+    <t>char_283_midn_boc_1</t>
+  </si>
+  <si>
+    <t>ポプカル</t>
+  </si>
+  <si>
+    <t>char_281_popka</t>
+  </si>
+  <si>
+    <t>スポット</t>
+  </si>
+  <si>
+    <t>char_284_spot</t>
+  </si>
+  <si>
+    <t>ヤトウ</t>
+  </si>
+  <si>
+    <t>char_502_nblade</t>
+  </si>
+  <si>
+    <t>char_501_durin</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>char_009_12fce</t>
+  </si>
+  <si>
+    <t>char_503_rang</t>
+  </si>
+  <si>
+    <t>char_500_noirc</t>
+  </si>
+  <si>
+    <t>char_285_medic2</t>
+  </si>
+  <si>
+    <t>char_286_cast3</t>
+  </si>
+  <si>
+    <t>char_286_cast3_summer_1</t>
+  </si>
+  <si>
+    <t>char_376_therex</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +3156,7 @@
   <dimension ref="A2:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5155,8 +6262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7194,4 +8301,5645 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C193" sqref="C1:C193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="str">
+        <f>VLOOKUP(A1,Sheet2!A:B,2,FALSE)</f>
+        <v>チェン</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,Sheet2!A:B,2,FALSE)</f>
+        <v>チェン</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Sheet2!A:B,2,FALSE)</f>
+        <v>シージ</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Sheet2!A:B,2,FALSE)</f>
+        <v>シージ</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Sheet2!A:B,2,FALSE)</f>
+        <v>シャイニング</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,Sheet2!A:B,2,FALSE)</f>
+        <v>シャイニング</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,Sheet2!A:B,2,FALSE)</f>
+        <v>ナイチンゲール</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,Sheet2!A:B,2,FALSE)</f>
+        <v>ナイチンゲール</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,Sheet2!A:B,2,FALSE)</f>
+        <v>イフリータ</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,Sheet2!A:B,2,FALSE)</f>
+        <v>イフリータ</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,Sheet2!A:B,2,FALSE)</f>
+        <v>イフリータ</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,Sheet2!A:B,2,FALSE)</f>
+        <v>エイヤフィヤトラ</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,Sheet2!A:B,2,FALSE)</f>
+        <v>エクシア</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,Sheet2!A:B,2,FALSE)</f>
+        <v>エクシア</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,Sheet2!A:B,2,FALSE)</f>
+        <v>エクシア</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,Sheet2!A:B,2,FALSE)</f>
+        <v>アンジェリーナ</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,Sheet2!A:B,2,FALSE)</f>
+        <v>アンジェリーナ</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,Sheet2!A:B,2,FALSE)</f>
+        <v>シルバーアッシュ</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,Sheet2!A:B,2,FALSE)</f>
+        <v>シルバーアッシュ</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,Sheet2!A:B,2,FALSE)</f>
+        <v>ホシグマ</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,Sheet2!A:B,2,FALSE)</f>
+        <v>ホシグマ</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,Sheet2!A:B,2,FALSE)</f>
+        <v>サリア</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Sheet2!A:B,2,FALSE)</f>
+        <v>サリア</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Sheet2!A:B,2,FALSE)</f>
+        <v>スカジ</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Sheet2!A:B,2,FALSE)</f>
+        <v>シュバルツ</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,Sheet2!A:B,2,FALSE)</f>
+        <v>シュバルツ</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,Sheet2!A:B,2,FALSE)</f>
+        <v>ヘラグ</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,Sheet2!A:B,2,FALSE)</f>
+        <v>マゼラン</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,Sheet2!A:B,2,FALSE)</f>
+        <v>モスティマ</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,Sheet2!A:B,2,FALSE)</f>
+        <v>ブレイズ</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,Sheet2!A:B,2,FALSE)</f>
+        <v>ア</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,Sheet2!A:B,2,FALSE)</f>
+        <v>ニアン</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,Sheet2!A:B,2,FALSE)</f>
+        <v>ケオベ</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,Sheet2!A:B,2,FALSE)</f>
+        <v>バグパイプ</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,Sheet2!A:B,2,FALSE)</f>
+        <v>ファントム</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="str">
+        <f>VLOOKUP(A36,Sheet2!A:B,2,FALSE)</f>
+        <v>W</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(A37,Sheet2!A:B,2,FALSE)</f>
+        <v>ウィーディ</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" t="str">
+        <f>VLOOKUP(A38,Sheet2!A:B,2,FALSE)</f>
+        <v>サベージ</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP(A39,Sheet2!A:B,2,FALSE)</f>
+        <v>テキサス</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="str">
+        <f>VLOOKUP(A40,Sheet2!A:B,2,FALSE)</f>
+        <v>テキサス</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="str">
+        <f>VLOOKUP(A41,Sheet2!A:B,2,FALSE)</f>
+        <v>ズィマー</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" t="str">
+        <f>VLOOKUP(A42,Sheet2!A:B,2,FALSE)</f>
+        <v>ズィマー</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="str">
+        <f>VLOOKUP(A43,Sheet2!A:B,2,FALSE)</f>
+        <v>フィリオプシス</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP(A44,Sheet2!A:B,2,FALSE)</f>
+        <v>フィリオプシス</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="str">
+        <f>VLOOKUP(A45,Sheet2!A:B,2,FALSE)</f>
+        <v>サイレンス</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="str">
+        <f>VLOOKUP(A46,Sheet2!A:B,2,FALSE)</f>
+        <v>サイレンス</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" t="str">
+        <f>VLOOKUP(A47,Sheet2!A:B,2,FALSE)</f>
+        <v>ワルファリン</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" t="str">
+        <f>VLOOKUP(A48,Sheet2!A:B,2,FALSE)</f>
+        <v>ワルファリン</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" t="str">
+        <f>VLOOKUP(A49,Sheet2!A:B,2,FALSE)</f>
+        <v>アーミヤ</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="str">
+        <f>VLOOKUP(A50,Sheet2!A:B,2,FALSE)</f>
+        <v>アーミヤ</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="str">
+        <f>VLOOKUP(A51,Sheet2!A:B,2,FALSE)</f>
+        <v>アーミヤ</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP(A52,Sheet2!A:B,2,FALSE)</f>
+        <v>ナイトメア</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP(A53,Sheet2!A:B,2,FALSE)</f>
+        <v>スカイフレア</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VLOOKUP(A54,Sheet2!A:B,2,FALSE)</f>
+        <v>スカイフレア</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" t="str">
+        <f>VLOOKUP(A55,Sheet2!A:B,2,FALSE)</f>
+        <v>レッド</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="str">
+        <f>VLOOKUP(A56,Sheet2!A:B,2,FALSE)</f>
+        <v>マンティコア</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" t="str">
+        <f>VLOOKUP(A57,Sheet2!A:B,2,FALSE)</f>
+        <v>クリフハート</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="str">
+        <f>VLOOKUP(A58,Sheet2!A:B,2,FALSE)</f>
+        <v>クリフハート</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" t="str">
+        <f>VLOOKUP(A59,Sheet2!A:B,2,FALSE)</f>
+        <v>クリフハート</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="str">
+        <f>VLOOKUP(A60,Sheet2!A:B,2,FALSE)</f>
+        <v>エフイーター</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" t="str">
+        <f>VLOOKUP(A61,Sheet2!A:B,2,FALSE)</f>
+        <v>エフイーター</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="str">
+        <f>VLOOKUP(A62,Sheet2!A:B,2,FALSE)</f>
+        <v>プロヴァンス</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" t="str">
+        <f>VLOOKUP(A63,Sheet2!A:B,2,FALSE)</f>
+        <v>アズリウス</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" t="str">
+        <f>VLOOKUP(A64,Sheet2!A:B,2,FALSE)</f>
+        <v>ファイヤーウォッチ</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" t="str">
+        <f>VLOOKUP(A65,Sheet2!A:B,2,FALSE)</f>
+        <v>ファイヤーウォッチ</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" t="str">
+        <f>VLOOKUP(A66,Sheet2!A:B,2,FALSE)</f>
+        <v>メテオリーテ</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" t="str">
+        <f>VLOOKUP(A67,Sheet2!A:B,2,FALSE)</f>
+        <v>メテオリーテ</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="str">
+        <f>VLOOKUP(A68,Sheet2!A:B,2,FALSE)</f>
+        <v>プラチナ</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="str">
+        <f>VLOOKUP(A69,Sheet2!A:B,2,FALSE)</f>
+        <v>プラマニクス</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" t="str">
+        <f>VLOOKUP(A70,Sheet2!A:B,2,FALSE)</f>
+        <v>プラマニクス</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" t="str">
+        <f>VLOOKUP(A71,Sheet2!A:B,2,FALSE)</f>
+        <v>イースチナ</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" t="str">
+        <f>VLOOKUP(A72,Sheet2!A:B,2,FALSE)</f>
+        <v>メイヤー</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="str">
+        <f>VLOOKUP(A73,Sheet2!A:B,2,FALSE)</f>
+        <v>ソラ</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="str">
+        <f>VLOOKUP(A74,Sheet2!A:B,2,FALSE)</f>
+        <v>ソラ</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" t="str">
+        <f>VLOOKUP(A75,Sheet2!A:B,2,FALSE)</f>
+        <v>フランカ</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="str">
+        <f>VLOOKUP(A76,Sheet2!A:B,2,FALSE)</f>
+        <v>スペクター</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="str">
+        <f>VLOOKUP(A77,Sheet2!A:B,2,FALSE)</f>
+        <v>スペクター</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="str">
+        <f>VLOOKUP(A78,Sheet2!A:B,2,FALSE)</f>
+        <v>インドラ</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" t="str">
+        <f>VLOOKUP(A79,Sheet2!A:B,2,FALSE)</f>
+        <v>ラップランド</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="str">
+        <f>VLOOKUP(A80,Sheet2!A:B,2,FALSE)</f>
+        <v>ラップランド</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="str">
+        <f>VLOOKUP(A81,Sheet2!A:B,2,FALSE)</f>
+        <v>ニアール</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="str">
+        <f>VLOOKUP(A82,Sheet2!A:B,2,FALSE)</f>
+        <v>リスカム</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" t="str">
+        <f>VLOOKUP(A83,Sheet2!A:B,2,FALSE)</f>
+        <v>リスカム</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" t="str">
+        <f>VLOOKUP(A84,Sheet2!A:B,2,FALSE)</f>
+        <v>ヴァルカン</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" t="str">
+        <f>VLOOKUP(A85,Sheet2!A:B,2,FALSE)</f>
+        <v>クロワッサン</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" t="str">
+        <f>VLOOKUP(A86,Sheet2!A:B,2,FALSE)</f>
+        <v>クロワッサン</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" t="str">
+        <f>VLOOKUP(A87,Sheet2!A:B,2,FALSE)</f>
+        <v>グラニ</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" t="str">
+        <f>VLOOKUP(A88,Sheet2!A:B,2,FALSE)</f>
+        <v>スワイヤー</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" t="str">
+        <f>VLOOKUP(A89,Sheet2!A:B,2,FALSE)</f>
+        <v>スワイヤー</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" t="str">
+        <f>VLOOKUP(A90,Sheet2!A:B,2,FALSE)</f>
+        <v>グラウコス</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" t="str">
+        <f>VLOOKUP(A91,Sheet2!A:B,2,FALSE)</f>
+        <v>セイロン</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" t="str">
+        <f>VLOOKUP(A92,Sheet2!A:B,2,FALSE)</f>
+        <v>アステシア</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="str">
+        <f>VLOOKUP(A93,Sheet2!A:B,2,FALSE)</f>
+        <v>エンカク</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" t="str">
+        <f>VLOOKUP(A94,Sheet2!A:B,2,FALSE)</f>
+        <v>イグゼキュター</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>296</v>
+      </c>
+      <c r="B95" t="str">
+        <f>VLOOKUP(A95,Sheet2!A:B,2,FALSE)</f>
+        <v>イグゼキュター</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="str">
+        <f>VLOOKUP(A96,Sheet2!A:B,2,FALSE)</f>
+        <v>ブリーズ</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" t="str">
+        <f>VLOOKUP(A97,Sheet2!A:B,2,FALSE)</f>
+        <v>ワーイ・フー</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" t="str">
+        <f>VLOOKUP(A98,Sheet2!A:B,2,FALSE)</f>
+        <v>バイソン</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" t="str">
+        <f>VLOOKUP(A99,Sheet2!A:B,2,FALSE)</f>
+        <v>リード</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" t="str">
+        <f>VLOOKUP(A100,Sheet2!A:B,2,FALSE)</f>
+        <v>ブローカ</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" t="str">
+        <f>VLOOKUP(A101,Sheet2!A:B,2,FALSE)</f>
+        <v>グレイスロート</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" t="str">
+        <f>VLOOKUP(A102,Sheet2!A:B,2,FALSE)</f>
+        <v>グレイスロート</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" t="str">
+        <f>VLOOKUP(A103,Sheet2!A:B,2,FALSE)</f>
+        <v>スノーズント</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" t="str">
+        <f>VLOOKUP(A104,Sheet2!A:B,2,FALSE)</f>
+        <v>ウン</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" t="str">
+        <f>VLOOKUP(A105,Sheet2!A:B,2,FALSE)</f>
+        <v>レイズ</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106" t="str">
+        <f>VLOOKUP(A106,Sheet2!A:B,2,FALSE)</f>
+        <v>バイビーク</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" t="str">
+        <f>VLOOKUP(A107,Sheet2!A:B,2,FALSE)</f>
+        <v>シェーシャ</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" t="str">
+        <f>VLOOKUP(A108,Sheet2!A:B,2,FALSE)</f>
+        <v>シャマレ</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" t="str">
+        <f>VLOOKUP(A109,Sheet2!A:B,2,FALSE)</f>
+        <v>シデロカ</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" t="str">
+        <f>VLOOKUP(A110,Sheet2!A:B,2,FALSE)</f>
+        <v>エリジウム</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" t="str">
+        <f>VLOOKUP(A111,Sheet2!A:B,2,FALSE)</f>
+        <v>クーリエ</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="str">
+        <f>VLOOKUP(A112,Sheet2!A:B,2,FALSE)</f>
+        <v>クーリエ</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="str">
+        <f>VLOOKUP(A113,Sheet2!A:B,2,FALSE)</f>
+        <v>スカベンジャー</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" t="str">
+        <f>VLOOKUP(A114,Sheet2!A:B,2,FALSE)</f>
+        <v>ヴィグナ</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" t="str">
+        <f>VLOOKUP(A115,Sheet2!A:B,2,FALSE)</f>
+        <v>ヴィグナ</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" t="str">
+        <f>VLOOKUP(A116,Sheet2!A:B,2,FALSE)</f>
+        <v>ミルラ</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" t="str">
+        <f>VLOOKUP(A117,Sheet2!A:B,2,FALSE)</f>
+        <v>ミルラ</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" t="str">
+        <f>VLOOKUP(A118,Sheet2!A:B,2,FALSE)</f>
+        <v>ガヴィル</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="str">
+        <f>VLOOKUP(A119,Sheet2!A:B,2,FALSE)</f>
+        <v>ガヴィル</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" t="str">
+        <f>VLOOKUP(A120,Sheet2!A:B,2,FALSE)</f>
+        <v>パフューマー</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" t="str">
+        <f>VLOOKUP(A121,Sheet2!A:B,2,FALSE)</f>
+        <v>パフューマー</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" t="str">
+        <f>VLOOKUP(A122,Sheet2!A:B,2,FALSE)</f>
+        <v>ヘイズ</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>203</v>
+      </c>
+      <c r="B123" t="str">
+        <f>VLOOKUP(A123,Sheet2!A:B,2,FALSE)</f>
+        <v>ギターノ</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" t="str">
+        <f>VLOOKUP(A124,Sheet2!A:B,2,FALSE)</f>
+        <v>ギターノ</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>279</v>
+      </c>
+      <c r="B125" t="str">
+        <f>VLOOKUP(A125,Sheet2!A:B,2,FALSE)</f>
+        <v>グラベル</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" t="str">
+        <f>VLOOKUP(A126,Sheet2!A:B,2,FALSE)</f>
+        <v>ロープ</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" t="str">
+        <f>VLOOKUP(A127,Sheet2!A:B,2,FALSE)</f>
+        <v>ロープ</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128" t="str">
+        <f>VLOOKUP(A128,Sheet2!A:B,2,FALSE)</f>
+        <v>ショウ</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>209</v>
+      </c>
+      <c r="B129" t="str">
+        <f>VLOOKUP(A129,Sheet2!A:B,2,FALSE)</f>
+        <v>シラユキ</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>215</v>
+      </c>
+      <c r="B130" t="str">
+        <f>VLOOKUP(A130,Sheet2!A:B,2,FALSE)</f>
+        <v>メテオ</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" t="str">
+        <f>VLOOKUP(A131,Sheet2!A:B,2,FALSE)</f>
+        <v>ジェシカ</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" t="str">
+        <f>VLOOKUP(A132,Sheet2!A:B,2,FALSE)</f>
+        <v>ジェシカ</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" t="str">
+        <f>VLOOKUP(A133,Sheet2!A:B,2,FALSE)</f>
+        <v>ジェシカ</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" t="str">
+        <f>VLOOKUP(A134,Sheet2!A:B,2,FALSE)</f>
+        <v>ジェシカ</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" t="str">
+        <f>VLOOKUP(A135,Sheet2!A:B,2,FALSE)</f>
+        <v>ディピカ</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" t="str">
+        <f>VLOOKUP(A136,Sheet2!A:B,2,FALSE)</f>
+        <v>アーススピリット</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" t="str">
+        <f>VLOOKUP(A137,Sheet2!A:B,2,FALSE)</f>
+        <v>ドーベルマン</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" t="str">
+        <f>VLOOKUP(A138,Sheet2!A:B,2,FALSE)</f>
+        <v>エステル</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" t="str">
+        <f>VLOOKUP(A139,Sheet2!A:B,2,FALSE)</f>
+        <v>ビーハンター</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" t="str">
+        <f>VLOOKUP(A140,Sheet2!A:B,2,FALSE)</f>
+        <v>ムース</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" t="str">
+        <f>VLOOKUP(A141,Sheet2!A:B,2,FALSE)</f>
+        <v>フロストリーフ</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" t="str">
+        <f>VLOOKUP(A142,Sheet2!A:B,2,FALSE)</f>
+        <v>マトイマル</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" t="str">
+        <f>VLOOKUP(A143,Sheet2!A:B,2,FALSE)</f>
+        <v>クオーラ</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="str">
+        <f>VLOOKUP(A144,Sheet2!A:B,2,FALSE)</f>
+        <v>クオーラ</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>256</v>
+      </c>
+      <c r="B145" t="str">
+        <f>VLOOKUP(A145,Sheet2!A:B,2,FALSE)</f>
+        <v>グム</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" t="str">
+        <f>VLOOKUP(A146,Sheet2!A:B,2,FALSE)</f>
+        <v>グム</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>258</v>
+      </c>
+      <c r="B147" t="str">
+        <f>VLOOKUP(A147,Sheet2!A:B,2,FALSE)</f>
+        <v>マッターホルン</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>258</v>
+      </c>
+      <c r="B148" t="str">
+        <f>VLOOKUP(A148,Sheet2!A:B,2,FALSE)</f>
+        <v>マッターホルン</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" t="str">
+        <f>VLOOKUP(A149,Sheet2!A:B,2,FALSE)</f>
+        <v>グレイ</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" t="str">
+        <f>VLOOKUP(A150,Sheet2!A:B,2,FALSE)</f>
+        <v>ススーロ</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" t="str">
+        <f>VLOOKUP(A151,Sheet2!A:B,2,FALSE)</f>
+        <v>テンニンカ</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>289</v>
+      </c>
+      <c r="B152" t="str">
+        <f>VLOOKUP(A152,Sheet2!A:B,2,FALSE)</f>
+        <v>ジュナー</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>252</v>
+      </c>
+      <c r="B153" t="str">
+        <f>VLOOKUP(A153,Sheet2!A:B,2,FALSE)</f>
+        <v>ヴァーミル</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>317</v>
+      </c>
+      <c r="B154" t="str">
+        <f>VLOOKUP(A154,Sheet2!A:B,2,FALSE)</f>
+        <v>イーサン</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>221</v>
+      </c>
+      <c r="B155" t="str">
+        <f>VLOOKUP(A155,Sheet2!A:B,2,FALSE)</f>
+        <v>メイ</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="str">
+        <f>VLOOKUP(A156,Sheet2!A:B,2,FALSE)</f>
+        <v>アンブリエル</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>323</v>
+      </c>
+      <c r="B157" t="str">
+        <f>VLOOKUP(A157,Sheet2!A:B,2,FALSE)</f>
+        <v>セイリュウ</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="str">
+        <f>VLOOKUP(A158,Sheet2!A:B,2,FALSE)</f>
+        <v>ウタゲ</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" t="str">
+        <f>VLOOKUP(A159,Sheet2!A:B,2,FALSE)</f>
+        <v>コンヴィクション</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" t="str">
+        <f>VLOOKUP(A160,Sheet2!A:B,2,FALSE)</f>
+        <v>カッター</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" t="str">
+        <f>VLOOKUP(A161,Sheet2!A:B,2,FALSE)</f>
+        <v>フェン</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>213</v>
+      </c>
+      <c r="B162" t="str">
+        <f>VLOOKUP(A162,Sheet2!A:B,2,FALSE)</f>
+        <v>フェン</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>280</v>
+      </c>
+      <c r="B163" t="str">
+        <f>VLOOKUP(A163,Sheet2!A:B,2,FALSE)</f>
+        <v>バニラ</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" t="str">
+        <f>VLOOKUP(A164,Sheet2!A:B,2,FALSE)</f>
+        <v>プリュム</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" t="str">
+        <f>VLOOKUP(A165,Sheet2!A:B,2,FALSE)</f>
+        <v>ハイビスカス</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>210</v>
+      </c>
+      <c r="B166" t="str">
+        <f>VLOOKUP(A166,Sheet2!A:B,2,FALSE)</f>
+        <v>ハイビスカス</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" t="str">
+        <f>VLOOKUP(A167,Sheet2!A:B,2,FALSE)</f>
+        <v>アンセル</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>268</v>
+      </c>
+      <c r="B168" t="str">
+        <f>VLOOKUP(A168,Sheet2!A:B,2,FALSE)</f>
+        <v>アンセル</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" t="str">
+        <f>VLOOKUP(A169,Sheet2!A:B,2,FALSE)</f>
+        <v>ラヴァ</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>266</v>
+      </c>
+      <c r="B170" t="str">
+        <f>VLOOKUP(A170,Sheet2!A:B,2,FALSE)</f>
+        <v>スチュワード</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" t="str">
+        <f>VLOOKUP(A171,Sheet2!A:B,2,FALSE)</f>
+        <v>クルース</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>214</v>
+      </c>
+      <c r="B172" t="str">
+        <f>VLOOKUP(A172,Sheet2!A:B,2,FALSE)</f>
+        <v>クルース</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>267</v>
+      </c>
+      <c r="B173" t="str">
+        <f>VLOOKUP(A173,Sheet2!A:B,2,FALSE)</f>
+        <v>アドナキエル</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>295</v>
+      </c>
+      <c r="B174" t="str">
+        <f>VLOOKUP(A174,Sheet2!A:B,2,FALSE)</f>
+        <v>オーキッド</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>264</v>
+      </c>
+      <c r="B175" t="str">
+        <f>VLOOKUP(A175,Sheet2!A:B,2,FALSE)</f>
+        <v>メランサ</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176" t="str">
+        <f>VLOOKUP(A176,Sheet2!A:B,2,FALSE)</f>
+        <v>メランサ</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>212</v>
+      </c>
+      <c r="B177" t="str">
+        <f>VLOOKUP(A177,Sheet2!A:B,2,FALSE)</f>
+        <v>ビーグル</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>265</v>
+      </c>
+      <c r="B178" t="str">
+        <f>VLOOKUP(A178,Sheet2!A:B,2,FALSE)</f>
+        <v>カーディ</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" t="str">
+        <f>VLOOKUP(A179,Sheet2!A:B,2,FALSE)</f>
+        <v>カーディ</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" t="str">
+        <f>VLOOKUP(A180,Sheet2!A:B,2,FALSE)</f>
+        <v>カタパルト</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>299</v>
+      </c>
+      <c r="B181" t="str">
+        <f>VLOOKUP(A181,Sheet2!A:B,2,FALSE)</f>
+        <v>ミッドナイト</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>299</v>
+      </c>
+      <c r="B182" t="str">
+        <f>VLOOKUP(A182,Sheet2!A:B,2,FALSE)</f>
+        <v>ミッドナイト</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>297</v>
+      </c>
+      <c r="B183" t="str">
+        <f>VLOOKUP(A183,Sheet2!A:B,2,FALSE)</f>
+        <v>ポプカル</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" t="str">
+        <f>VLOOKUP(A184,Sheet2!A:B,2,FALSE)</f>
+        <v>スポット</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" t="str">
+        <f>VLOOKUP(A185,Sheet2!A:B,2,FALSE)</f>
+        <v>ヤトウ</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>327</v>
+      </c>
+      <c r="B186" t="str">
+        <f>VLOOKUP(A186,Sheet2!A:B,2,FALSE)</f>
+        <v>ドゥリン</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="str">
+        <f>VLOOKUP(A187,Sheet2!A:B,2,FALSE)</f>
+        <v>12F</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>329</v>
+      </c>
+      <c r="B188" t="str">
+        <f>VLOOKUP(A188,Sheet2!A:B,2,FALSE)</f>
+        <v>レンジャー</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>326</v>
+      </c>
+      <c r="B189" t="str">
+        <f>VLOOKUP(A189,Sheet2!A:B,2,FALSE)</f>
+        <v>ノイルホーン</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>301</v>
+      </c>
+      <c r="B190" t="str">
+        <f>VLOOKUP(A190,Sheet2!A:B,2,FALSE)</f>
+        <v>Lancet-2</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>302</v>
+      </c>
+      <c r="B191" t="str">
+        <f>VLOOKUP(A191,Sheet2!A:B,2,FALSE)</f>
+        <v>Castle-3</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>302</v>
+      </c>
+      <c r="B192" t="str">
+        <f>VLOOKUP(A192,Sheet2!A:B,2,FALSE)</f>
+        <v>Castle-3</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>320</v>
+      </c>
+      <c r="B193" t="str">
+        <f>VLOOKUP(A193,Sheet2!A:B,2,FALSE)</f>
+        <v>THRM-EX</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:E193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D10" t="s">
+        <v>594</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D13" t="s">
+        <v>598</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C15" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" t="s">
+        <v>600</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C16" t="s">
+        <v>602</v>
+      </c>
+      <c r="D16" t="s">
+        <v>602</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" t="s">
+        <v>601</v>
+      </c>
+      <c r="C17" t="s">
+        <v>602</v>
+      </c>
+      <c r="D17" t="s">
+        <v>603</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19" t="s">
+        <v>604</v>
+      </c>
+      <c r="C19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D19" t="s">
+        <v>606</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" t="s">
+        <v>608</v>
+      </c>
+      <c r="D20" t="s">
+        <v>608</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" t="s">
+        <v>610</v>
+      </c>
+      <c r="C22" t="s">
+        <v>611</v>
+      </c>
+      <c r="D22" t="s">
+        <v>611</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" t="s">
+        <v>610</v>
+      </c>
+      <c r="C23" t="s">
+        <v>611</v>
+      </c>
+      <c r="D23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B24" t="s">
+        <v>613</v>
+      </c>
+      <c r="C24" t="s">
+        <v>614</v>
+      </c>
+      <c r="D24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" t="s">
+        <v>615</v>
+      </c>
+      <c r="C25" t="s">
+        <v>616</v>
+      </c>
+      <c r="D25" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" t="s">
+        <v>616</v>
+      </c>
+      <c r="D26" t="s">
+        <v>617</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" t="s">
+        <v>618</v>
+      </c>
+      <c r="C27" t="s">
+        <v>619</v>
+      </c>
+      <c r="D27" t="s">
+        <v>619</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>524</v>
+      </c>
+      <c r="B28" t="s">
+        <v>620</v>
+      </c>
+      <c r="C28" t="s">
+        <v>621</v>
+      </c>
+      <c r="D28" t="s">
+        <v>621</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" t="s">
+        <v>622</v>
+      </c>
+      <c r="C29" t="s">
+        <v>623</v>
+      </c>
+      <c r="D29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>524</v>
+      </c>
+      <c r="B30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D30" t="s">
+        <v>625</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>524</v>
+      </c>
+      <c r="B31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C31" t="s">
+        <v>627</v>
+      </c>
+      <c r="D31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" t="s">
+        <v>629</v>
+      </c>
+      <c r="D32" t="s">
+        <v>629</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>524</v>
+      </c>
+      <c r="B33" t="s">
+        <v>630</v>
+      </c>
+      <c r="C33" t="s">
+        <v>631</v>
+      </c>
+      <c r="D33" t="s">
+        <v>631</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>524</v>
+      </c>
+      <c r="B34" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D34" t="s">
+        <v>633</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" t="s">
+        <v>634</v>
+      </c>
+      <c r="C35" t="s">
+        <v>635</v>
+      </c>
+      <c r="D35" t="s">
+        <v>635</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>524</v>
+      </c>
+      <c r="B36" t="s">
+        <v>636</v>
+      </c>
+      <c r="C36" t="s">
+        <v>637</v>
+      </c>
+      <c r="D36" t="s">
+        <v>637</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>524</v>
+      </c>
+      <c r="B37" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" t="s">
+        <v>638</v>
+      </c>
+      <c r="D37" t="s">
+        <v>638</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B38" t="s">
+        <v>639</v>
+      </c>
+      <c r="C38" t="s">
+        <v>640</v>
+      </c>
+      <c r="D38" t="s">
+        <v>640</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>524</v>
+      </c>
+      <c r="B39" t="s">
+        <v>641</v>
+      </c>
+      <c r="C39" t="s">
+        <v>642</v>
+      </c>
+      <c r="D39" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>540</v>
+      </c>
+      <c r="B40" t="s">
+        <v>641</v>
+      </c>
+      <c r="C40" t="s">
+        <v>642</v>
+      </c>
+      <c r="D40" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>524</v>
+      </c>
+      <c r="B41" t="s">
+        <v>644</v>
+      </c>
+      <c r="C41" t="s">
+        <v>645</v>
+      </c>
+      <c r="D41" t="s">
+        <v>645</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>541</v>
+      </c>
+      <c r="B42" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" t="s">
+        <v>645</v>
+      </c>
+      <c r="D42" t="s">
+        <v>646</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" t="s">
+        <v>647</v>
+      </c>
+      <c r="C43" t="s">
+        <v>648</v>
+      </c>
+      <c r="D43" t="s">
+        <v>648</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>542</v>
+      </c>
+      <c r="B44" t="s">
+        <v>647</v>
+      </c>
+      <c r="C44" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" t="s">
+        <v>649</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B45" t="s">
+        <v>650</v>
+      </c>
+      <c r="C45" t="s">
+        <v>651</v>
+      </c>
+      <c r="D45" t="s">
+        <v>651</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>543</v>
+      </c>
+      <c r="B46" t="s">
+        <v>650</v>
+      </c>
+      <c r="C46" t="s">
+        <v>651</v>
+      </c>
+      <c r="D46" t="s">
+        <v>652</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>524</v>
+      </c>
+      <c r="B47" t="s">
+        <v>653</v>
+      </c>
+      <c r="C47" t="s">
+        <v>654</v>
+      </c>
+      <c r="D47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>544</v>
+      </c>
+      <c r="B48" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" t="s">
+        <v>654</v>
+      </c>
+      <c r="D48" t="s">
+        <v>655</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" t="s">
+        <v>656</v>
+      </c>
+      <c r="C49" t="s">
+        <v>657</v>
+      </c>
+      <c r="D49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" t="s">
+        <v>657</v>
+      </c>
+      <c r="D50" t="s">
+        <v>658</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
+        <v>656</v>
+      </c>
+      <c r="C51" t="s">
+        <v>657</v>
+      </c>
+      <c r="D51" t="s">
+        <v>659</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>524</v>
+      </c>
+      <c r="B52" t="s">
+        <v>660</v>
+      </c>
+      <c r="C52" t="s">
+        <v>661</v>
+      </c>
+      <c r="D52" t="s">
+        <v>661</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B53" t="s">
+        <v>662</v>
+      </c>
+      <c r="C53" t="s">
+        <v>663</v>
+      </c>
+      <c r="D53" t="s">
+        <v>663</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B54" t="s">
+        <v>662</v>
+      </c>
+      <c r="C54" t="s">
+        <v>663</v>
+      </c>
+      <c r="D54" t="s">
+        <v>664</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>524</v>
+      </c>
+      <c r="B55" t="s">
+        <v>665</v>
+      </c>
+      <c r="C55" t="s">
+        <v>666</v>
+      </c>
+      <c r="D55" t="s">
+        <v>666</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>524</v>
+      </c>
+      <c r="B56" t="s">
+        <v>667</v>
+      </c>
+      <c r="C56" t="s">
+        <v>668</v>
+      </c>
+      <c r="D56" t="s">
+        <v>668</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>524</v>
+      </c>
+      <c r="B57" t="s">
+        <v>669</v>
+      </c>
+      <c r="C57" t="s">
+        <v>670</v>
+      </c>
+      <c r="D57" t="s">
+        <v>670</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>547</v>
+      </c>
+      <c r="B58" t="s">
+        <v>669</v>
+      </c>
+      <c r="C58" t="s">
+        <v>670</v>
+      </c>
+      <c r="D58" t="s">
+        <v>671</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>546</v>
+      </c>
+      <c r="B59" t="s">
+        <v>669</v>
+      </c>
+      <c r="C59" t="s">
+        <v>670</v>
+      </c>
+      <c r="D59" t="s">
+        <v>672</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>524</v>
+      </c>
+      <c r="B60" t="s">
+        <v>673</v>
+      </c>
+      <c r="C60" t="s">
+        <v>674</v>
+      </c>
+      <c r="D60" t="s">
+        <v>674</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>548</v>
+      </c>
+      <c r="B61" t="s">
+        <v>673</v>
+      </c>
+      <c r="C61" t="s">
+        <v>674</v>
+      </c>
+      <c r="D61" t="s">
+        <v>675</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>524</v>
+      </c>
+      <c r="B62" t="s">
+        <v>676</v>
+      </c>
+      <c r="C62" t="s">
+        <v>677</v>
+      </c>
+      <c r="D62" t="s">
+        <v>677</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>524</v>
+      </c>
+      <c r="B63" t="s">
+        <v>678</v>
+      </c>
+      <c r="C63" t="s">
+        <v>679</v>
+      </c>
+      <c r="D63" t="s">
+        <v>679</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>524</v>
+      </c>
+      <c r="B64" t="s">
+        <v>680</v>
+      </c>
+      <c r="C64" t="s">
+        <v>681</v>
+      </c>
+      <c r="D64" t="s">
+        <v>681</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>549</v>
+      </c>
+      <c r="B65" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" t="s">
+        <v>681</v>
+      </c>
+      <c r="D65" t="s">
+        <v>682</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>524</v>
+      </c>
+      <c r="B66" t="s">
+        <v>683</v>
+      </c>
+      <c r="C66" t="s">
+        <v>684</v>
+      </c>
+      <c r="D66" t="s">
+        <v>684</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>550</v>
+      </c>
+      <c r="B67" t="s">
+        <v>683</v>
+      </c>
+      <c r="C67" t="s">
+        <v>684</v>
+      </c>
+      <c r="D67" t="s">
+        <v>685</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68" t="s">
+        <v>686</v>
+      </c>
+      <c r="C68" t="s">
+        <v>687</v>
+      </c>
+      <c r="D68" t="s">
+        <v>687</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>524</v>
+      </c>
+      <c r="B69" t="s">
+        <v>688</v>
+      </c>
+      <c r="C69" t="s">
+        <v>689</v>
+      </c>
+      <c r="D69" t="s">
+        <v>689</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>551</v>
+      </c>
+      <c r="B70" t="s">
+        <v>688</v>
+      </c>
+      <c r="C70" t="s">
+        <v>689</v>
+      </c>
+      <c r="D70" t="s">
+        <v>690</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>524</v>
+      </c>
+      <c r="B71" t="s">
+        <v>691</v>
+      </c>
+      <c r="C71" t="s">
+        <v>692</v>
+      </c>
+      <c r="D71" t="s">
+        <v>692</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>524</v>
+      </c>
+      <c r="B72" t="s">
+        <v>693</v>
+      </c>
+      <c r="C72" t="s">
+        <v>694</v>
+      </c>
+      <c r="D72" t="s">
+        <v>694</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" t="s">
+        <v>695</v>
+      </c>
+      <c r="C73" t="s">
+        <v>696</v>
+      </c>
+      <c r="D73" t="s">
+        <v>696</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>552</v>
+      </c>
+      <c r="B74" t="s">
+        <v>695</v>
+      </c>
+      <c r="C74" t="s">
+        <v>696</v>
+      </c>
+      <c r="D74" t="s">
+        <v>697</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>524</v>
+      </c>
+      <c r="B75" t="s">
+        <v>698</v>
+      </c>
+      <c r="C75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" t="s">
+        <v>699</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>524</v>
+      </c>
+      <c r="B76" t="s">
+        <v>700</v>
+      </c>
+      <c r="C76" t="s">
+        <v>701</v>
+      </c>
+      <c r="D76" t="s">
+        <v>701</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>553</v>
+      </c>
+      <c r="B77" t="s">
+        <v>700</v>
+      </c>
+      <c r="C77" t="s">
+        <v>701</v>
+      </c>
+      <c r="D77" t="s">
+        <v>702</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" t="s">
+        <v>703</v>
+      </c>
+      <c r="C78" t="s">
+        <v>704</v>
+      </c>
+      <c r="D78" t="s">
+        <v>704</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>524</v>
+      </c>
+      <c r="B79" t="s">
+        <v>705</v>
+      </c>
+      <c r="C79" t="s">
+        <v>706</v>
+      </c>
+      <c r="D79" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" t="s">
+        <v>705</v>
+      </c>
+      <c r="C80" t="s">
+        <v>706</v>
+      </c>
+      <c r="D80" t="s">
+        <v>707</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>524</v>
+      </c>
+      <c r="B81" t="s">
+        <v>708</v>
+      </c>
+      <c r="C81" t="s">
+        <v>709</v>
+      </c>
+      <c r="D81" t="s">
+        <v>709</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>524</v>
+      </c>
+      <c r="B82" t="s">
+        <v>710</v>
+      </c>
+      <c r="C82" t="s">
+        <v>711</v>
+      </c>
+      <c r="D82" t="s">
+        <v>711</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>555</v>
+      </c>
+      <c r="B83" t="s">
+        <v>710</v>
+      </c>
+      <c r="C83" t="s">
+        <v>711</v>
+      </c>
+      <c r="D83" t="s">
+        <v>712</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" t="s">
+        <v>713</v>
+      </c>
+      <c r="C84" t="s">
+        <v>714</v>
+      </c>
+      <c r="D84" t="s">
+        <v>714</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>524</v>
+      </c>
+      <c r="B85" t="s">
+        <v>715</v>
+      </c>
+      <c r="C85" t="s">
+        <v>716</v>
+      </c>
+      <c r="D85" t="s">
+        <v>716</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>556</v>
+      </c>
+      <c r="B86" t="s">
+        <v>715</v>
+      </c>
+      <c r="C86" t="s">
+        <v>716</v>
+      </c>
+      <c r="D86" t="s">
+        <v>717</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>524</v>
+      </c>
+      <c r="B87" t="s">
+        <v>718</v>
+      </c>
+      <c r="C87" t="s">
+        <v>719</v>
+      </c>
+      <c r="D87" t="s">
+        <v>719</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>524</v>
+      </c>
+      <c r="B88" t="s">
+        <v>720</v>
+      </c>
+      <c r="C88" t="s">
+        <v>721</v>
+      </c>
+      <c r="D88" t="s">
+        <v>721</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>557</v>
+      </c>
+      <c r="B89" t="s">
+        <v>720</v>
+      </c>
+      <c r="C89" t="s">
+        <v>721</v>
+      </c>
+      <c r="D89" t="s">
+        <v>722</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>524</v>
+      </c>
+      <c r="B90" t="s">
+        <v>723</v>
+      </c>
+      <c r="C90" t="s">
+        <v>724</v>
+      </c>
+      <c r="D90" t="s">
+        <v>724</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>524</v>
+      </c>
+      <c r="B91" t="s">
+        <v>725</v>
+      </c>
+      <c r="C91" t="s">
+        <v>726</v>
+      </c>
+      <c r="D91" t="s">
+        <v>726</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>524</v>
+      </c>
+      <c r="B92" t="s">
+        <v>727</v>
+      </c>
+      <c r="C92" t="s">
+        <v>728</v>
+      </c>
+      <c r="D92" t="s">
+        <v>728</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>524</v>
+      </c>
+      <c r="B93" t="s">
+        <v>729</v>
+      </c>
+      <c r="C93" t="s">
+        <v>730</v>
+      </c>
+      <c r="D93" t="s">
+        <v>730</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>524</v>
+      </c>
+      <c r="B94" t="s">
+        <v>431</v>
+      </c>
+      <c r="C94" t="s">
+        <v>731</v>
+      </c>
+      <c r="D94" t="s">
+        <v>731</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>558</v>
+      </c>
+      <c r="B95" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" t="s">
+        <v>731</v>
+      </c>
+      <c r="D95" t="s">
+        <v>732</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>524</v>
+      </c>
+      <c r="B96" t="s">
+        <v>733</v>
+      </c>
+      <c r="C96" t="s">
+        <v>734</v>
+      </c>
+      <c r="D96" t="s">
+        <v>734</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>524</v>
+      </c>
+      <c r="B97" t="s">
+        <v>418</v>
+      </c>
+      <c r="C97" t="s">
+        <v>735</v>
+      </c>
+      <c r="D97" t="s">
+        <v>735</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>524</v>
+      </c>
+      <c r="B98" t="s">
+        <v>736</v>
+      </c>
+      <c r="C98" t="s">
+        <v>737</v>
+      </c>
+      <c r="D98" t="s">
+        <v>737</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>524</v>
+      </c>
+      <c r="B99" t="s">
+        <v>738</v>
+      </c>
+      <c r="C99" t="s">
+        <v>739</v>
+      </c>
+      <c r="D99" t="s">
+        <v>739</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>524</v>
+      </c>
+      <c r="B100" t="s">
+        <v>740</v>
+      </c>
+      <c r="C100" t="s">
+        <v>741</v>
+      </c>
+      <c r="D100" t="s">
+        <v>741</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>524</v>
+      </c>
+      <c r="B101" t="s">
+        <v>454</v>
+      </c>
+      <c r="C101" t="s">
+        <v>742</v>
+      </c>
+      <c r="D101" t="s">
+        <v>742</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>559</v>
+      </c>
+      <c r="B102" t="s">
+        <v>454</v>
+      </c>
+      <c r="C102" t="s">
+        <v>742</v>
+      </c>
+      <c r="D102" t="s">
+        <v>743</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>524</v>
+      </c>
+      <c r="B103" t="s">
+        <v>457</v>
+      </c>
+      <c r="C103" t="s">
+        <v>744</v>
+      </c>
+      <c r="D103" t="s">
+        <v>744</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>524</v>
+      </c>
+      <c r="B104" t="s">
+        <v>745</v>
+      </c>
+      <c r="C104" t="s">
+        <v>746</v>
+      </c>
+      <c r="D104" t="s">
+        <v>746</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>524</v>
+      </c>
+      <c r="B105" t="s">
+        <v>747</v>
+      </c>
+      <c r="C105" t="s">
+        <v>748</v>
+      </c>
+      <c r="D105" t="s">
+        <v>748</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>524</v>
+      </c>
+      <c r="B106" t="s">
+        <v>749</v>
+      </c>
+      <c r="C106" t="s">
+        <v>750</v>
+      </c>
+      <c r="D106" t="s">
+        <v>750</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>524</v>
+      </c>
+      <c r="B107" t="s">
+        <v>456</v>
+      </c>
+      <c r="C107" t="s">
+        <v>751</v>
+      </c>
+      <c r="D107" t="s">
+        <v>751</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>524</v>
+      </c>
+      <c r="B108" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" t="s">
+        <v>752</v>
+      </c>
+      <c r="D108" t="s">
+        <v>752</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>524</v>
+      </c>
+      <c r="B109" t="s">
+        <v>753</v>
+      </c>
+      <c r="C109" t="s">
+        <v>754</v>
+      </c>
+      <c r="D109" t="s">
+        <v>754</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>524</v>
+      </c>
+      <c r="B110" t="s">
+        <v>460</v>
+      </c>
+      <c r="C110" t="s">
+        <v>755</v>
+      </c>
+      <c r="D110" t="s">
+        <v>755</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>524</v>
+      </c>
+      <c r="B111" t="s">
+        <v>756</v>
+      </c>
+      <c r="C111" t="s">
+        <v>757</v>
+      </c>
+      <c r="D111" t="s">
+        <v>757</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>560</v>
+      </c>
+      <c r="B112" t="s">
+        <v>756</v>
+      </c>
+      <c r="C112" t="s">
+        <v>757</v>
+      </c>
+      <c r="D112" t="s">
+        <v>758</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>524</v>
+      </c>
+      <c r="B113" t="s">
+        <v>759</v>
+      </c>
+      <c r="C113" t="s">
+        <v>760</v>
+      </c>
+      <c r="D113" t="s">
+        <v>760</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>524</v>
+      </c>
+      <c r="B114" t="s">
+        <v>761</v>
+      </c>
+      <c r="C114" t="s">
+        <v>762</v>
+      </c>
+      <c r="D114" t="s">
+        <v>762</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>561</v>
+      </c>
+      <c r="B115" t="s">
+        <v>761</v>
+      </c>
+      <c r="C115" t="s">
+        <v>762</v>
+      </c>
+      <c r="D115" t="s">
+        <v>763</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>524</v>
+      </c>
+      <c r="B116" t="s">
+        <v>764</v>
+      </c>
+      <c r="C116" t="s">
+        <v>765</v>
+      </c>
+      <c r="D116" t="s">
+        <v>765</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>562</v>
+      </c>
+      <c r="B117" t="s">
+        <v>764</v>
+      </c>
+      <c r="C117" t="s">
+        <v>765</v>
+      </c>
+      <c r="D117" t="s">
+        <v>766</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>524</v>
+      </c>
+      <c r="B118" t="s">
+        <v>767</v>
+      </c>
+      <c r="C118" t="s">
+        <v>768</v>
+      </c>
+      <c r="D118" t="s">
+        <v>768</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>563</v>
+      </c>
+      <c r="B119" t="s">
+        <v>767</v>
+      </c>
+      <c r="C119" t="s">
+        <v>768</v>
+      </c>
+      <c r="D119" t="s">
+        <v>769</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>524</v>
+      </c>
+      <c r="B120" t="s">
+        <v>770</v>
+      </c>
+      <c r="C120" t="s">
+        <v>771</v>
+      </c>
+      <c r="D120" t="s">
+        <v>771</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>564</v>
+      </c>
+      <c r="B121" t="s">
+        <v>770</v>
+      </c>
+      <c r="C121" t="s">
+        <v>771</v>
+      </c>
+      <c r="D121" t="s">
+        <v>772</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>524</v>
+      </c>
+      <c r="B122" t="s">
+        <v>773</v>
+      </c>
+      <c r="C122" t="s">
+        <v>774</v>
+      </c>
+      <c r="D122" t="s">
+        <v>774</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>524</v>
+      </c>
+      <c r="B123" t="s">
+        <v>775</v>
+      </c>
+      <c r="C123" t="s">
+        <v>776</v>
+      </c>
+      <c r="D123" t="s">
+        <v>776</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>565</v>
+      </c>
+      <c r="B124" t="s">
+        <v>775</v>
+      </c>
+      <c r="C124" t="s">
+        <v>776</v>
+      </c>
+      <c r="D124" t="s">
+        <v>777</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>524</v>
+      </c>
+      <c r="B125" t="s">
+        <v>778</v>
+      </c>
+      <c r="C125" t="s">
+        <v>779</v>
+      </c>
+      <c r="D125" t="s">
+        <v>779</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" t="s">
+        <v>780</v>
+      </c>
+      <c r="C126" t="s">
+        <v>781</v>
+      </c>
+      <c r="D126" t="s">
+        <v>781</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>566</v>
+      </c>
+      <c r="B127" t="s">
+        <v>780</v>
+      </c>
+      <c r="C127" t="s">
+        <v>781</v>
+      </c>
+      <c r="D127" t="s">
+        <v>782</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>524</v>
+      </c>
+      <c r="B128" t="s">
+        <v>783</v>
+      </c>
+      <c r="C128" t="s">
+        <v>784</v>
+      </c>
+      <c r="D128" t="s">
+        <v>784</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>524</v>
+      </c>
+      <c r="B129" t="s">
+        <v>785</v>
+      </c>
+      <c r="C129" t="s">
+        <v>786</v>
+      </c>
+      <c r="D129" t="s">
+        <v>786</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" t="s">
+        <v>787</v>
+      </c>
+      <c r="C130" t="s">
+        <v>788</v>
+      </c>
+      <c r="D130" t="s">
+        <v>788</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131" t="s">
+        <v>789</v>
+      </c>
+      <c r="C131" t="s">
+        <v>790</v>
+      </c>
+      <c r="D131" t="s">
+        <v>790</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>569</v>
+      </c>
+      <c r="B132" t="s">
+        <v>789</v>
+      </c>
+      <c r="C132" t="s">
+        <v>790</v>
+      </c>
+      <c r="D132" t="s">
+        <v>791</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>568</v>
+      </c>
+      <c r="B133" t="s">
+        <v>789</v>
+      </c>
+      <c r="C133" t="s">
+        <v>790</v>
+      </c>
+      <c r="D133" t="s">
+        <v>792</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>567</v>
+      </c>
+      <c r="B134" t="s">
+        <v>789</v>
+      </c>
+      <c r="C134" t="s">
+        <v>790</v>
+      </c>
+      <c r="D134" t="s">
+        <v>793</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>524</v>
+      </c>
+      <c r="B135" t="s">
+        <v>794</v>
+      </c>
+      <c r="C135" t="s">
+        <v>795</v>
+      </c>
+      <c r="D135" t="s">
+        <v>795</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>524</v>
+      </c>
+      <c r="B136" t="s">
+        <v>796</v>
+      </c>
+      <c r="C136" t="s">
+        <v>797</v>
+      </c>
+      <c r="D136" t="s">
+        <v>797</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>524</v>
+      </c>
+      <c r="B137" t="s">
+        <v>798</v>
+      </c>
+      <c r="C137" t="s">
+        <v>799</v>
+      </c>
+      <c r="D137" t="s">
+        <v>799</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>524</v>
+      </c>
+      <c r="B138" t="s">
+        <v>800</v>
+      </c>
+      <c r="C138" t="s">
+        <v>801</v>
+      </c>
+      <c r="D138" t="s">
+        <v>801</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>524</v>
+      </c>
+      <c r="B139" t="s">
+        <v>802</v>
+      </c>
+      <c r="C139" t="s">
+        <v>803</v>
+      </c>
+      <c r="D139" t="s">
+        <v>803</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>524</v>
+      </c>
+      <c r="B140" t="s">
+        <v>804</v>
+      </c>
+      <c r="C140" t="s">
+        <v>805</v>
+      </c>
+      <c r="D140" t="s">
+        <v>805</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>524</v>
+      </c>
+      <c r="B141" t="s">
+        <v>806</v>
+      </c>
+      <c r="C141" t="s">
+        <v>807</v>
+      </c>
+      <c r="D141" t="s">
+        <v>807</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>524</v>
+      </c>
+      <c r="B142" t="s">
+        <v>808</v>
+      </c>
+      <c r="C142" t="s">
+        <v>809</v>
+      </c>
+      <c r="D142" t="s">
+        <v>809</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>524</v>
+      </c>
+      <c r="B143" t="s">
+        <v>810</v>
+      </c>
+      <c r="C143" t="s">
+        <v>811</v>
+      </c>
+      <c r="D143" t="s">
+        <v>811</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>570</v>
+      </c>
+      <c r="B144" t="s">
+        <v>810</v>
+      </c>
+      <c r="C144" t="s">
+        <v>811</v>
+      </c>
+      <c r="D144" t="s">
+        <v>812</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>524</v>
+      </c>
+      <c r="B145" t="s">
+        <v>813</v>
+      </c>
+      <c r="C145" t="s">
+        <v>814</v>
+      </c>
+      <c r="D145" t="s">
+        <v>814</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>571</v>
+      </c>
+      <c r="B146" t="s">
+        <v>813</v>
+      </c>
+      <c r="C146" t="s">
+        <v>814</v>
+      </c>
+      <c r="D146" t="s">
+        <v>815</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>524</v>
+      </c>
+      <c r="B147" t="s">
+        <v>395</v>
+      </c>
+      <c r="C147" t="s">
+        <v>816</v>
+      </c>
+      <c r="D147" t="s">
+        <v>816</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>572</v>
+      </c>
+      <c r="B148" t="s">
+        <v>395</v>
+      </c>
+      <c r="C148" t="s">
+        <v>816</v>
+      </c>
+      <c r="D148" t="s">
+        <v>817</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>524</v>
+      </c>
+      <c r="B149" t="s">
+        <v>818</v>
+      </c>
+      <c r="C149" t="s">
+        <v>819</v>
+      </c>
+      <c r="D149" t="s">
+        <v>819</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>524</v>
+      </c>
+      <c r="B150" t="s">
+        <v>820</v>
+      </c>
+      <c r="C150" t="s">
+        <v>821</v>
+      </c>
+      <c r="D150" t="s">
+        <v>821</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>524</v>
+      </c>
+      <c r="B151" t="s">
+        <v>822</v>
+      </c>
+      <c r="C151" t="s">
+        <v>823</v>
+      </c>
+      <c r="D151" t="s">
+        <v>823</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>524</v>
+      </c>
+      <c r="B152" t="s">
+        <v>824</v>
+      </c>
+      <c r="C152" t="s">
+        <v>825</v>
+      </c>
+      <c r="D152" t="s">
+        <v>825</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>524</v>
+      </c>
+      <c r="B153" t="s">
+        <v>826</v>
+      </c>
+      <c r="C153" t="s">
+        <v>827</v>
+      </c>
+      <c r="D153" t="s">
+        <v>827</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>524</v>
+      </c>
+      <c r="B154" t="s">
+        <v>828</v>
+      </c>
+      <c r="C154" t="s">
+        <v>829</v>
+      </c>
+      <c r="D154" t="s">
+        <v>829</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>524</v>
+      </c>
+      <c r="B155" t="s">
+        <v>830</v>
+      </c>
+      <c r="C155" t="s">
+        <v>831</v>
+      </c>
+      <c r="D155" t="s">
+        <v>831</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>524</v>
+      </c>
+      <c r="B156" t="s">
+        <v>832</v>
+      </c>
+      <c r="C156" t="s">
+        <v>833</v>
+      </c>
+      <c r="D156" t="s">
+        <v>833</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>524</v>
+      </c>
+      <c r="B157" t="s">
+        <v>458</v>
+      </c>
+      <c r="C157" t="s">
+        <v>834</v>
+      </c>
+      <c r="D157" t="s">
+        <v>834</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>524</v>
+      </c>
+      <c r="B158" t="s">
+        <v>835</v>
+      </c>
+      <c r="C158" t="s">
+        <v>836</v>
+      </c>
+      <c r="D158" t="s">
+        <v>836</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>524</v>
+      </c>
+      <c r="B159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159" t="s">
+        <v>837</v>
+      </c>
+      <c r="D159" t="s">
+        <v>837</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>524</v>
+      </c>
+      <c r="B160" t="s">
+        <v>838</v>
+      </c>
+      <c r="C160" t="s">
+        <v>839</v>
+      </c>
+      <c r="D160" t="s">
+        <v>839</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>524</v>
+      </c>
+      <c r="B161" t="s">
+        <v>840</v>
+      </c>
+      <c r="C161" t="s">
+        <v>841</v>
+      </c>
+      <c r="D161" t="s">
+        <v>841</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>524</v>
+      </c>
+      <c r="B162" t="s">
+        <v>840</v>
+      </c>
+      <c r="C162" t="s">
+        <v>841</v>
+      </c>
+      <c r="D162" t="s">
+        <v>842</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>524</v>
+      </c>
+      <c r="B163" t="s">
+        <v>843</v>
+      </c>
+      <c r="C163" t="s">
+        <v>844</v>
+      </c>
+      <c r="D163" t="s">
+        <v>844</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>524</v>
+      </c>
+      <c r="B164" t="s">
+        <v>845</v>
+      </c>
+      <c r="C164" t="s">
+        <v>846</v>
+      </c>
+      <c r="D164" t="s">
+        <v>846</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>524</v>
+      </c>
+      <c r="B165" t="s">
+        <v>847</v>
+      </c>
+      <c r="C165" t="s">
+        <v>848</v>
+      </c>
+      <c r="D165" t="s">
+        <v>848</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>573</v>
+      </c>
+      <c r="B166" t="s">
+        <v>847</v>
+      </c>
+      <c r="C166" t="s">
+        <v>848</v>
+      </c>
+      <c r="D166" t="s">
+        <v>849</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>524</v>
+      </c>
+      <c r="B167" t="s">
+        <v>850</v>
+      </c>
+      <c r="C167" t="s">
+        <v>851</v>
+      </c>
+      <c r="D167" t="s">
+        <v>851</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>574</v>
+      </c>
+      <c r="B168" t="s">
+        <v>850</v>
+      </c>
+      <c r="C168" t="s">
+        <v>851</v>
+      </c>
+      <c r="D168" t="s">
+        <v>852</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>524</v>
+      </c>
+      <c r="B169" t="s">
+        <v>853</v>
+      </c>
+      <c r="C169" t="s">
+        <v>854</v>
+      </c>
+      <c r="D169" t="s">
+        <v>854</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>524</v>
+      </c>
+      <c r="B170" t="s">
+        <v>855</v>
+      </c>
+      <c r="C170" t="s">
+        <v>856</v>
+      </c>
+      <c r="D170" t="s">
+        <v>856</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>524</v>
+      </c>
+      <c r="B171" t="s">
+        <v>857</v>
+      </c>
+      <c r="C171" t="s">
+        <v>858</v>
+      </c>
+      <c r="D171" t="s">
+        <v>858</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>575</v>
+      </c>
+      <c r="B172" t="s">
+        <v>857</v>
+      </c>
+      <c r="C172" t="s">
+        <v>858</v>
+      </c>
+      <c r="D172" t="s">
+        <v>859</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>524</v>
+      </c>
+      <c r="B173" t="s">
+        <v>860</v>
+      </c>
+      <c r="C173" t="s">
+        <v>861</v>
+      </c>
+      <c r="D173" t="s">
+        <v>861</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>524</v>
+      </c>
+      <c r="B174" t="s">
+        <v>862</v>
+      </c>
+      <c r="C174" t="s">
+        <v>863</v>
+      </c>
+      <c r="D174" t="s">
+        <v>863</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>524</v>
+      </c>
+      <c r="B175" t="s">
+        <v>864</v>
+      </c>
+      <c r="C175" t="s">
+        <v>865</v>
+      </c>
+      <c r="D175" t="s">
+        <v>865</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>576</v>
+      </c>
+      <c r="B176" t="s">
+        <v>864</v>
+      </c>
+      <c r="C176" t="s">
+        <v>865</v>
+      </c>
+      <c r="D176" t="s">
+        <v>866</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>524</v>
+      </c>
+      <c r="B177" t="s">
+        <v>867</v>
+      </c>
+      <c r="C177" t="s">
+        <v>868</v>
+      </c>
+      <c r="D177" t="s">
+        <v>868</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>524</v>
+      </c>
+      <c r="B178" t="s">
+        <v>869</v>
+      </c>
+      <c r="C178" t="s">
+        <v>870</v>
+      </c>
+      <c r="D178" t="s">
+        <v>870</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>577</v>
+      </c>
+      <c r="B179" t="s">
+        <v>869</v>
+      </c>
+      <c r="C179" t="s">
+        <v>870</v>
+      </c>
+      <c r="D179" t="s">
+        <v>871</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>524</v>
+      </c>
+      <c r="B180" t="s">
+        <v>872</v>
+      </c>
+      <c r="C180" t="s">
+        <v>873</v>
+      </c>
+      <c r="D180" t="s">
+        <v>873</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>524</v>
+      </c>
+      <c r="B181" t="s">
+        <v>874</v>
+      </c>
+      <c r="C181" t="s">
+        <v>875</v>
+      </c>
+      <c r="D181" t="s">
+        <v>875</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>578</v>
+      </c>
+      <c r="B182" t="s">
+        <v>874</v>
+      </c>
+      <c r="C182" t="s">
+        <v>875</v>
+      </c>
+      <c r="D182" t="s">
+        <v>876</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>524</v>
+      </c>
+      <c r="B183" t="s">
+        <v>877</v>
+      </c>
+      <c r="C183" t="s">
+        <v>878</v>
+      </c>
+      <c r="D183" t="s">
+        <v>878</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>524</v>
+      </c>
+      <c r="B184" t="s">
+        <v>879</v>
+      </c>
+      <c r="C184" t="s">
+        <v>880</v>
+      </c>
+      <c r="D184" t="s">
+        <v>880</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>524</v>
+      </c>
+      <c r="B185" t="s">
+        <v>881</v>
+      </c>
+      <c r="C185" t="s">
+        <v>882</v>
+      </c>
+      <c r="D185" t="s">
+        <v>882</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>524</v>
+      </c>
+      <c r="B186" t="s">
+        <v>462</v>
+      </c>
+      <c r="C186" t="s">
+        <v>883</v>
+      </c>
+      <c r="D186" t="s">
+        <v>883</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>524</v>
+      </c>
+      <c r="B187" t="s">
+        <v>884</v>
+      </c>
+      <c r="C187" t="s">
+        <v>885</v>
+      </c>
+      <c r="D187" t="s">
+        <v>885</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>524</v>
+      </c>
+      <c r="B188" t="s">
+        <v>464</v>
+      </c>
+      <c r="C188" t="s">
+        <v>886</v>
+      </c>
+      <c r="D188" t="s">
+        <v>886</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>524</v>
+      </c>
+      <c r="B189" t="s">
+        <v>461</v>
+      </c>
+      <c r="C189" t="s">
+        <v>887</v>
+      </c>
+      <c r="D189" t="s">
+        <v>887</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>524</v>
+      </c>
+      <c r="B190" t="s">
+        <v>436</v>
+      </c>
+      <c r="C190" t="s">
+        <v>888</v>
+      </c>
+      <c r="D190" t="s">
+        <v>888</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>524</v>
+      </c>
+      <c r="B191" t="s">
+        <v>437</v>
+      </c>
+      <c r="C191" t="s">
+        <v>889</v>
+      </c>
+      <c r="D191" t="s">
+        <v>889</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>579</v>
+      </c>
+      <c r="B192" t="s">
+        <v>437</v>
+      </c>
+      <c r="C192" t="s">
+        <v>889</v>
+      </c>
+      <c r="D192" t="s">
+        <v>890</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>524</v>
+      </c>
+      <c r="B193" t="s">
+        <v>455</v>
+      </c>
+      <c r="C193" t="s">
+        <v>891</v>
+      </c>
+      <c r="D193" t="s">
+        <v>891</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>